--- a/documents/Published/Forecast using Neural Network/ForecastUsingNNChecklist.xlsx
+++ b/documents/Published/Forecast using Neural Network/ForecastUsingNNChecklist.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Forecast using NN\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2678E8-055A-4C71-8A93-125F2EE12C86}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="9240" xr2:uid="{BC0B0A38-054E-45B5-9199-95FB44BC05F8}"/>
   </bookViews>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>S no</t>
   </si>
@@ -194,9 +195,6 @@
     <t>Display a basic forecast plot.</t>
   </si>
   <si>
-    <t>1. Add a series/Date &amp; Time field and a measures corresponding to the supplied time series in their respective fields.</t>
-  </si>
-  <si>
     <t>Chage the color and label of observed values forecast line and confidence intervalof upward or downward slope.</t>
   </si>
   <si>
@@ -242,6 +240,52 @@
     <t>Change x axis attributes for the plot.</t>
   </si>
   <si>
+    <t>Y-axis settings</t>
+  </si>
+  <si>
+    <t>Change y axis attributes for the plot.</t>
+  </si>
+  <si>
+    <t>Changing the parameters for the forecast plot.</t>
+  </si>
+  <si>
+    <t>Forecast settings</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Goto formatting pane.
+2. Under </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Forecast settings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>update the parameters for the prediction model.</t>
+    </r>
+  </si>
+  <si>
+    <t>The previous model will be retrained using new parameter values and subsequently a new plot will be displayed.</t>
+  </si>
+  <si>
+    <t>1. Add a series/Date &amp; Time field and a measures corresponding to the supplied time series in their respective fields.
+2. Set aggregation as 'Don’t Summarize' for both the fields</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. Goto formatting pane.
 2. Under </t>
@@ -265,17 +309,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>change the desired attribute.</t>
-    </r>
-  </si>
-  <si>
-    <t>The x-axis attributes such as x-title, label, grid color, zero lines etc. will get updated.</t>
-  </si>
-  <si>
-    <t>Y-axis settings</t>
-  </si>
-  <si>
-    <t>Change y axis attributes for the plot.</t>
+      <t>change the 'Title' to 'X axis'
+3. Toggle the 'Zeroline' to 'off'
+4. Toggle the 'Zeroline' to 'on'
+5. Toggle the 'Labels' to 'off' 
+6. Toggle the 'Labels' to 'on'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The x axis title will beome 'X axis'
+2. The zero line will get updated
+3. The Labels will get updated </t>
+  </si>
+  <si>
+    <t>Grid Lines</t>
+  </si>
+  <si>
+    <t>1.Toggle the 'Grid Lines' to 'off' 
+2. Toggle the 'Grid Lines' to 'on'
+3. Change the 'Grid Lines' color to 'red'
+4. Change the 'Grid Lines' width to '2'</t>
+  </si>
+  <si>
+    <t>1. The Grid Lines will get updated
+2. Grid Lines color will change to red
+3. Grid Lines width will update to '2'</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>1. Toggle the 'Baseline' to 'off'
+2. Toggle the 'Baseline' to on
+3. Change the 'Baseline Color' to 'green'
+4. Change the 'Baseline Width' to '3'</t>
+  </si>
+  <si>
+    <t>1. The Baseline will get updated
+2. The baseline color will be updated to green
+3. The baseline width will update to '3'</t>
   </si>
   <si>
     <r>
@@ -301,47 +373,39 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>change the desired attribute.</t>
-    </r>
-  </si>
-  <si>
-    <t>The y-axis attributes such as y-title, label, grid color, zero lines etc. will get updated.</t>
-  </si>
-  <si>
-    <t>Changing the parameters for the forecast plot.</t>
-  </si>
-  <si>
-    <t>Forecast settings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Goto formatting pane.
-2. Under </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Forecast settings </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>update the parameters for the prediction model.</t>
-    </r>
-  </si>
-  <si>
-    <t>The previous model will be retrained using new parameter values and subsequently a new plot will be displayed.</t>
+      <t>change the 'Title' to 'Y axis'
+3. Toggle the 'Zeroline' to 'off'
+4. Toggle the 'Zeroline' to 'on'
+5. Toggle the 'Labels' to 'off' 
+6. Toggle the 'Labels' to 'on'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The y axis title will beome 'Y axis'
+2. The zero line will get updated
+3. The Labels will get updated </t>
+  </si>
+  <si>
+    <t>1.Toggle the 'Grid Lines' to 'off' 
+2. Toggle the 'Grid Lines' to 'on'
+3. Change the 'Grid Lines' color to 'yellow'
+4. Change the 'Grid Lines' width to '2'</t>
+  </si>
+  <si>
+    <t>1. The Grid Lines will get updated
+2. Grid Lines color will change to yellow
+3. Grid Lines width will update to '2'</t>
+  </si>
+  <si>
+    <t>1. Toggle the 'Baseline' to 'off'
+2. Toggle the 'Baseline' to on
+3. Change the 'Baseline Color' to 'orange'
+4. Change the 'Baseline Width' to '4'</t>
+  </si>
+  <si>
+    <t>1. The Baseline will get updated
+2. The baseline color will be updated to orange
+3. The baseline width will update to '4'</t>
   </si>
 </sst>
 </file>
@@ -822,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825C9BA6-98E2-44AB-A8DB-087AD143234E}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,13 +922,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -875,16 +939,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,50 +956,94 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
